--- a/Compare GE15 v GE 14.xlsx
+++ b/Compare GE15 v GE 14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github\Malaysia_General_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD1ADFAC-77B6-40E3-A5DE-C07D0D514A27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B633FEB-6AB4-440C-B373-CFAAF85F6A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" activeTab="2" xr2:uid="{6B7B4435-5E37-4CA7-922A-DBE791A6CEF1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" xr2:uid="{6B7B4435-5E37-4CA7-922A-DBE791A6CEF1}"/>
   </bookViews>
   <sheets>
     <sheet name="GE15" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="230">
   <si>
     <t>P1</t>
   </si>
@@ -714,6 +714,9 @@
   </si>
   <si>
     <t>Increment %</t>
+  </si>
+  <si>
+    <t>Show Up rate</t>
   </si>
 </sst>
 </file>
@@ -1066,14 +1069,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AD9879-9B0F-4787-ACB2-6015BB90CDC2}">
-  <dimension ref="A2:D223"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -4189,14 +4209,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8762D61C-9719-48C0-ACE6-499A378A933A}">
-  <dimension ref="A2:D223"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D223"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>229</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -7314,8 +7351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8028E4F6-8AB1-471A-8EEE-49A5862016ED}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Compare GE15 v GE 14.xlsx
+++ b/Compare GE15 v GE 14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\github\Malaysia_General_election\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B633FEB-6AB4-440C-B373-CFAAF85F6A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E8ECDC-ECB0-4DE8-B7FA-92C0740062EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" xr2:uid="{6B7B4435-5E37-4CA7-922A-DBE791A6CEF1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9525" activeTab="2" xr2:uid="{6B7B4435-5E37-4CA7-922A-DBE791A6CEF1}"/>
   </bookViews>
   <sheets>
     <sheet name="GE15" sheetId="1" r:id="rId1"/>
@@ -1071,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AD9879-9B0F-4787-ACB2-6015BB90CDC2}">
   <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -7351,8 +7351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8028E4F6-8AB1-471A-8EEE-49A5862016ED}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7360,7 +7360,7 @@
     <col min="2" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -7399,7 +7399,7 @@
       <c r="F2" t="s">
         <v>227</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7427,7 +7427,7 @@
         <f>VLOOKUP(A3,'GE14'!A:D,3,FALSE)</f>
         <v>36500</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>E3/F3-1</f>
         <v>0.24076712328767114</v>
       </c>
@@ -7456,7 +7456,7 @@
         <f>VLOOKUP(A4,'GE14'!A:D,3,FALSE)</f>
         <v>44680</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f t="shared" ref="G4:G67" si="1">E4/F4-1</f>
         <v>0.25783348254252458</v>
       </c>
@@ -7485,7 +7485,7 @@
         <f>VLOOKUP(A5,'GE14'!A:D,3,FALSE)</f>
         <v>39600</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>0.18154040404040406</v>
       </c>
@@ -7514,7 +7514,7 @@
         <f>VLOOKUP(A6,'GE14'!A:D,3,FALSE)</f>
         <v>34527</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>0.37515567526863025</v>
       </c>
@@ -7543,7 +7543,7 @@
         <f>VLOOKUP(A7,'GE14'!A:D,3,FALSE)</f>
         <v>43937</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>0.18822404806882576</v>
       </c>
@@ -7572,7 +7572,7 @@
         <f>VLOOKUP(A8,'GE14'!A:D,3,FALSE)</f>
         <v>60334</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>0.3823383167036829</v>
       </c>
@@ -7601,7 +7601,7 @@
         <f>VLOOKUP(A9,'GE14'!A:D,3,FALSE)</f>
         <v>38923</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>0.24936412917812101</v>
       </c>
@@ -7630,7 +7630,7 @@
         <f>VLOOKUP(A10,'GE14'!A:D,3,FALSE)</f>
         <v>70750</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>0.24302473498233224</v>
       </c>
@@ -7659,7 +7659,7 @@
         <f>VLOOKUP(A11,'GE14'!A:D,3,FALSE)</f>
         <v>63931</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>0.2042045330121538</v>
       </c>
@@ -7688,7 +7688,7 @@
         <f>VLOOKUP(A12,'GE14'!A:D,3,FALSE)</f>
         <v>79167</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>0.26915255093662771</v>
       </c>
@@ -7717,7 +7717,7 @@
         <f>VLOOKUP(A13,'GE14'!A:D,3,FALSE)</f>
         <v>62246</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>0.21443948205507191</v>
       </c>
@@ -7746,7 +7746,7 @@
         <f>VLOOKUP(A14,'GE14'!A:D,3,FALSE)</f>
         <v>65736</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>0.25187112084702457</v>
       </c>
@@ -7775,7 +7775,7 @@
         <f>VLOOKUP(A15,'GE14'!A:D,3,FALSE)</f>
         <v>41928</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>0.22021083762640714</v>
       </c>
@@ -7804,7 +7804,7 @@
         <f>VLOOKUP(A16,'GE14'!A:D,3,FALSE)</f>
         <v>71350</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>0.4371969166082692</v>
       </c>
@@ -7833,7 +7833,7 @@
         <f>VLOOKUP(A17,'GE14'!A:D,3,FALSE)</f>
         <v>92534</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>0.40493224112218207</v>
       </c>
@@ -7862,7 +7862,7 @@
         <f>VLOOKUP(A18,'GE14'!A:D,3,FALSE)</f>
         <v>90512</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>0.20496729715396844</v>
       </c>
@@ -7891,7 +7891,7 @@
         <f>VLOOKUP(A19,'GE14'!A:D,3,FALSE)</f>
         <v>70084</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7920,7 +7920,7 @@
         <f>VLOOKUP(A20,'GE14'!A:D,3,FALSE)</f>
         <v>54343</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
         <v>0.29437094013948428</v>
       </c>
@@ -7949,7 +7949,7 @@
         <f>VLOOKUP(A21,'GE14'!A:D,3,FALSE)</f>
         <v>86585</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>0.20874285384304447</v>
       </c>
@@ -7978,7 +7978,7 @@
         <f>VLOOKUP(A22,'GE14'!A:D,3,FALSE)</f>
         <v>59387</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>0.30939431188643973</v>
       </c>
@@ -8007,7 +8007,7 @@
         <f>VLOOKUP(A23,'GE14'!A:D,3,FALSE)</f>
         <v>66969</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>0.16500171721244161</v>
       </c>
@@ -8036,7 +8036,7 @@
         <f>VLOOKUP(A24,'GE14'!A:D,3,FALSE)</f>
         <v>53551</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>0.21665328378555015</v>
       </c>
@@ -8065,7 +8065,7 @@
         <f>VLOOKUP(A25,'GE14'!A:D,3,FALSE)</f>
         <v>48373</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>0.25125586587559168</v>
       </c>
@@ -8094,7 +8094,7 @@
         <f>VLOOKUP(A26,'GE14'!A:D,3,FALSE)</f>
         <v>63428</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
         <v>0.28309264047423843</v>
       </c>
@@ -8123,7 +8123,7 @@
         <f>VLOOKUP(A27,'GE14'!A:D,3,FALSE)</f>
         <v>73964</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>0.20892596398247787</v>
       </c>
@@ -8152,7 +8152,7 @@
         <f>VLOOKUP(A28,'GE14'!A:D,3,FALSE)</f>
         <v>53107</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <f t="shared" si="1"/>
         <v>0.18368576647146329</v>
       </c>
@@ -8181,7 +8181,7 @@
         <f>VLOOKUP(A29,'GE14'!A:D,3,FALSE)</f>
         <v>58122</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
         <v>0.19896080657926429</v>
       </c>
@@ -8210,7 +8210,7 @@
         <f>VLOOKUP(A30,'GE14'!A:D,3,FALSE)</f>
         <v>68150</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
         <v>0.18823184152604555</v>
       </c>
@@ -8239,7 +8239,7 @@
         <f>VLOOKUP(A31,'GE14'!A:D,3,FALSE)</f>
         <v>55023</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <f t="shared" si="1"/>
         <v>0.18339603438562047</v>
       </c>
@@ -8268,7 +8268,7 @@
         <f>VLOOKUP(A32,'GE14'!A:D,3,FALSE)</f>
         <v>38761</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <f t="shared" si="1"/>
         <v>0.10814994453187476</v>
       </c>
@@ -8297,7 +8297,7 @@
         <f>VLOOKUP(A33,'GE14'!A:D,3,FALSE)</f>
         <v>54987</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <f t="shared" si="1"/>
         <v>0.17629621546911078</v>
       </c>
@@ -8326,7 +8326,7 @@
         <f>VLOOKUP(A34,'GE14'!A:D,3,FALSE)</f>
         <v>39936</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <f t="shared" si="1"/>
         <v>0.21136318108974361</v>
       </c>
@@ -8355,7 +8355,7 @@
         <f>VLOOKUP(A35,'GE14'!A:D,3,FALSE)</f>
         <v>70935</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <f t="shared" si="1"/>
         <v>0.20341157397617526</v>
       </c>
@@ -8384,7 +8384,7 @@
         <f>VLOOKUP(A36,'GE14'!A:D,3,FALSE)</f>
         <v>71978</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <f t="shared" si="1"/>
         <v>0.17858234460529609</v>
       </c>
@@ -8413,7 +8413,7 @@
         <f>VLOOKUP(A37,'GE14'!A:D,3,FALSE)</f>
         <v>72105</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <f t="shared" si="1"/>
         <v>0.21528326745718052</v>
       </c>
@@ -8442,7 +8442,7 @@
         <f>VLOOKUP(A38,'GE14'!A:D,3,FALSE)</f>
         <v>86583</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <f t="shared" si="1"/>
         <v>0.11513807560375589</v>
       </c>
@@ -8471,7 +8471,7 @@
         <f>VLOOKUP(A39,'GE14'!A:D,3,FALSE)</f>
         <v>90682</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <f t="shared" si="1"/>
         <v>0.20275247568425936</v>
       </c>
@@ -8500,7 +8500,7 @@
         <f>VLOOKUP(A40,'GE14'!A:D,3,FALSE)</f>
         <v>62346</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <f t="shared" si="1"/>
         <v>0.15497385558014942</v>
       </c>
@@ -8529,7 +8529,7 @@
         <f>VLOOKUP(A41,'GE14'!A:D,3,FALSE)</f>
         <v>75414</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <f t="shared" si="1"/>
         <v>0.21023947808099286</v>
       </c>
@@ -8558,7 +8558,7 @@
         <f>VLOOKUP(A42,'GE14'!A:D,3,FALSE)</f>
         <v>90504</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <f t="shared" si="1"/>
         <v>0.24961327676124823</v>
       </c>
@@ -8587,7 +8587,7 @@
         <f>VLOOKUP(A43,'GE14'!A:D,3,FALSE)</f>
         <v>52302</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <f t="shared" si="1"/>
         <v>0.3250353714963099</v>
       </c>
@@ -8616,7 +8616,7 @@
         <f>VLOOKUP(A44,'GE14'!A:D,3,FALSE)</f>
         <v>51904</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <f t="shared" si="1"/>
         <v>0.29300246609124536</v>
       </c>
@@ -8645,7 +8645,7 @@
         <f>VLOOKUP(A45,'GE14'!A:D,3,FALSE)</f>
         <v>60087</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <f t="shared" si="1"/>
         <v>0.14257659726729566</v>
       </c>
@@ -8674,7 +8674,7 @@
         <f>VLOOKUP(A46,'GE14'!A:D,3,FALSE)</f>
         <v>69828</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <f t="shared" si="1"/>
         <v>0.25233430715472305</v>
       </c>
@@ -8703,7 +8703,7 @@
         <f>VLOOKUP(A47,'GE14'!A:D,3,FALSE)</f>
         <v>74691</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <f t="shared" si="1"/>
         <v>0.2417158693818533</v>
       </c>
@@ -8732,7 +8732,7 @@
         <f>VLOOKUP(A48,'GE14'!A:D,3,FALSE)</f>
         <v>54705</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <f t="shared" si="1"/>
         <v>0.25822136916186822</v>
       </c>
@@ -8761,7 +8761,7 @@
         <f>VLOOKUP(A49,'GE14'!A:D,3,FALSE)</f>
         <v>62179</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <f t="shared" si="1"/>
         <v>0.27547885942199124</v>
       </c>
@@ -8790,7 +8790,7 @@
         <f>VLOOKUP(A50,'GE14'!A:D,3,FALSE)</f>
         <v>59706</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <f t="shared" si="1"/>
         <v>4.661173081432346E-2</v>
       </c>
@@ -8819,7 +8819,7 @@
         <f>VLOOKUP(A51,'GE14'!A:D,3,FALSE)</f>
         <v>39727</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <f t="shared" si="1"/>
         <v>-5.1451154126916254E-2</v>
       </c>
@@ -8848,7 +8848,7 @@
         <f>VLOOKUP(A52,'GE14'!A:D,3,FALSE)</f>
         <v>63666</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <f t="shared" si="1"/>
         <v>0.11059278107624171</v>
       </c>
@@ -8877,7 +8877,7 @@
         <f>VLOOKUP(A53,'GE14'!A:D,3,FALSE)</f>
         <v>75705</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <f t="shared" si="1"/>
         <v>0.13695264513572414</v>
       </c>
@@ -8906,7 +8906,7 @@
         <f>VLOOKUP(A54,'GE14'!A:D,3,FALSE)</f>
         <v>74849</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <f t="shared" si="1"/>
         <v>0.19851968630175421</v>
       </c>
@@ -8935,7 +8935,7 @@
         <f>VLOOKUP(A55,'GE14'!A:D,3,FALSE)</f>
         <v>49776</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <f t="shared" si="1"/>
         <v>0.28397219543555119</v>
       </c>
@@ -8964,7 +8964,7 @@
         <f>VLOOKUP(A56,'GE14'!A:D,3,FALSE)</f>
         <v>27311</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <f t="shared" si="1"/>
         <v>0.26732818278349391</v>
       </c>
@@ -8993,7 +8993,7 @@
         <f>VLOOKUP(A57,'GE14'!A:D,3,FALSE)</f>
         <v>23205</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <f t="shared" si="1"/>
         <v>0.19280327515621631</v>
       </c>
@@ -9022,7 +9022,7 @@
         <f>VLOOKUP(A58,'GE14'!A:D,3,FALSE)</f>
         <v>39620</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <f t="shared" si="1"/>
         <v>0.30931347804139331</v>
       </c>
@@ -9051,7 +9051,7 @@
         <f>VLOOKUP(A59,'GE14'!A:D,3,FALSE)</f>
         <v>42720</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <f t="shared" si="1"/>
         <v>0.23836610486891385</v>
       </c>
@@ -9080,7 +9080,7 @@
         <f>VLOOKUP(A60,'GE14'!A:D,3,FALSE)</f>
         <v>47255</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <f t="shared" si="1"/>
         <v>0.32330970267696535</v>
       </c>
@@ -9109,7 +9109,7 @@
         <f>VLOOKUP(A61,'GE14'!A:D,3,FALSE)</f>
         <v>56863</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <f t="shared" si="1"/>
         <v>0.25858642702636159</v>
       </c>
@@ -9138,7 +9138,7 @@
         <f>VLOOKUP(A62,'GE14'!A:D,3,FALSE)</f>
         <v>69743</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <f t="shared" si="1"/>
         <v>0.21544814533358192</v>
       </c>
@@ -9167,7 +9167,7 @@
         <f>VLOOKUP(A63,'GE14'!A:D,3,FALSE)</f>
         <v>25281</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1">
         <f t="shared" si="1"/>
         <v>0.18183616154424276</v>
       </c>
@@ -9196,7 +9196,7 @@
         <f>VLOOKUP(A64,'GE14'!A:D,3,FALSE)</f>
         <v>42726</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1">
         <f t="shared" si="1"/>
         <v>0.20884239104994617</v>
       </c>
@@ -9225,7 +9225,7 @@
         <f>VLOOKUP(A65,'GE14'!A:D,3,FALSE)</f>
         <v>86950</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <f t="shared" si="1"/>
         <v>0.43495112133409997</v>
       </c>
@@ -9254,7 +9254,7 @@
         <f>VLOOKUP(A66,'GE14'!A:D,3,FALSE)</f>
         <v>70241</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <f t="shared" si="1"/>
         <v>0.13580387522956672</v>
       </c>
@@ -9283,7 +9283,7 @@
         <f>VLOOKUP(A67,'GE14'!A:D,3,FALSE)</f>
         <v>65502</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <f t="shared" si="1"/>
         <v>0.19623828280052513</v>
       </c>
@@ -9312,7 +9312,7 @@
         <f>VLOOKUP(A68,'GE14'!A:D,3,FALSE)</f>
         <v>62787</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <f t="shared" ref="G68:G131" si="3">E68/F68-1</f>
         <v>0.19379807922022074</v>
       </c>
@@ -9341,7 +9341,7 @@
         <f>VLOOKUP(A69,'GE14'!A:D,3,FALSE)</f>
         <v>30056</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <f t="shared" si="3"/>
         <v>0.18957945169017831</v>
       </c>
@@ -9370,7 +9370,7 @@
         <f>VLOOKUP(A70,'GE14'!A:D,3,FALSE)</f>
         <v>60267</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <f t="shared" si="3"/>
         <v>0.19755421706738341</v>
       </c>
@@ -9399,7 +9399,7 @@
         <f>VLOOKUP(A71,'GE14'!A:D,3,FALSE)</f>
         <v>28990</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <f t="shared" si="3"/>
         <v>0.29510175922731974</v>
       </c>
@@ -9428,7 +9428,7 @@
         <f>VLOOKUP(A72,'GE14'!A:D,3,FALSE)</f>
         <v>52495</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <f t="shared" si="3"/>
         <v>0.13126964472806923</v>
       </c>
@@ -9457,7 +9457,7 @@
         <f>VLOOKUP(A73,'GE14'!A:D,3,FALSE)</f>
         <v>79233</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <f t="shared" si="3"/>
         <v>0.30801559956078917</v>
       </c>
@@ -9486,7 +9486,7 @@
         <f>VLOOKUP(A74,'GE14'!A:D,3,FALSE)</f>
         <v>36174</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <f t="shared" si="3"/>
         <v>0.22964007298059386</v>
       </c>
@@ -9515,7 +9515,7 @@
         <f>VLOOKUP(A75,'GE14'!A:D,3,FALSE)</f>
         <v>43445</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <f t="shared" si="3"/>
         <v>0.31253308781217637</v>
       </c>
@@ -9544,7 +9544,7 @@
         <f>VLOOKUP(A76,'GE14'!A:D,3,FALSE)</f>
         <v>53645</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <f t="shared" si="3"/>
         <v>0.3265355578339082</v>
       </c>
@@ -9573,7 +9573,7 @@
         <f>VLOOKUP(A77,'GE14'!A:D,3,FALSE)</f>
         <v>36806</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <f t="shared" si="3"/>
         <v>0.13720589034396569</v>
       </c>
@@ -9602,7 +9602,7 @@
         <f>VLOOKUP(A78,'GE14'!A:D,3,FALSE)</f>
         <v>53655</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <f t="shared" si="3"/>
         <v>0.19642158233156271</v>
       </c>
@@ -9631,7 +9631,7 @@
         <f>VLOOKUP(A79,'GE14'!A:D,3,FALSE)</f>
         <v>54297</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <f t="shared" si="3"/>
         <v>0.28314639851188828</v>
       </c>
@@ -9660,7 +9660,7 @@
         <f>VLOOKUP(A80,'GE14'!A:D,3,FALSE)</f>
         <v>24365</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <f t="shared" si="3"/>
         <v>0.36527806279499275</v>
       </c>
@@ -9689,7 +9689,7 @@
         <f>VLOOKUP(A81,'GE14'!A:D,3,FALSE)</f>
         <v>28092</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1">
         <f t="shared" si="3"/>
         <v>0.27634201908016509</v>
       </c>
@@ -9718,7 +9718,7 @@
         <f>VLOOKUP(A82,'GE14'!A:D,3,FALSE)</f>
         <v>46025</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="1">
         <f t="shared" si="3"/>
         <v>0.22183595871808803</v>
       </c>
@@ -9747,7 +9747,7 @@
         <f>VLOOKUP(A83,'GE14'!A:D,3,FALSE)</f>
         <v>50249</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="1">
         <f t="shared" si="3"/>
         <v>0.32846424804473728</v>
       </c>
@@ -9776,7 +9776,7 @@
         <f>VLOOKUP(A84,'GE14'!A:D,3,FALSE)</f>
         <v>63721</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="1">
         <f t="shared" si="3"/>
         <v>0.46543525682271158</v>
       </c>
@@ -9805,7 +9805,7 @@
         <f>VLOOKUP(A85,'GE14'!A:D,3,FALSE)</f>
         <v>51170</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="1">
         <f t="shared" si="3"/>
         <v>0.32425249169435211</v>
       </c>
@@ -9834,7 +9834,7 @@
         <f>VLOOKUP(A86,'GE14'!A:D,3,FALSE)</f>
         <v>44100</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1">
         <f t="shared" si="3"/>
         <v>0.40551020408163274</v>
       </c>
@@ -9863,7 +9863,7 @@
         <f>VLOOKUP(A87,'GE14'!A:D,3,FALSE)</f>
         <v>70614</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <f t="shared" si="3"/>
         <v>0.31759990936641458</v>
       </c>
@@ -9892,7 +9892,7 @@
         <f>VLOOKUP(A88,'GE14'!A:D,3,FALSE)</f>
         <v>32725</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1">
         <f t="shared" si="3"/>
         <v>0.2556760886172651</v>
       </c>
@@ -9921,7 +9921,7 @@
         <f>VLOOKUP(A89,'GE14'!A:D,3,FALSE)</f>
         <v>38311</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1">
         <f t="shared" si="3"/>
         <v>0.24645663125473094</v>
       </c>
@@ -9950,7 +9950,7 @@
         <f>VLOOKUP(A90,'GE14'!A:D,3,FALSE)</f>
         <v>61050</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="1">
         <f t="shared" si="3"/>
         <v>0.35359541359541358</v>
       </c>
@@ -9979,7 +9979,7 @@
         <f>VLOOKUP(A91,'GE14'!A:D,3,FALSE)</f>
         <v>55106</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="1">
         <f t="shared" si="3"/>
         <v>0.20961419809095205</v>
       </c>
@@ -10008,7 +10008,7 @@
         <f>VLOOKUP(A92,'GE14'!A:D,3,FALSE)</f>
         <v>47305</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="1">
         <f t="shared" si="3"/>
         <v>0.25880985096712816</v>
       </c>
@@ -10037,7 +10037,7 @@
         <f>VLOOKUP(A93,'GE14'!A:D,3,FALSE)</f>
         <v>49737</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="1">
         <f t="shared" si="3"/>
         <v>0.34561795041920496</v>
       </c>
@@ -10066,7 +10066,7 @@
         <f>VLOOKUP(A94,'GE14'!A:D,3,FALSE)</f>
         <v>33350</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="1">
         <f t="shared" si="3"/>
         <v>0.22869565217391297</v>
       </c>
@@ -10095,7 +10095,7 @@
         <f>VLOOKUP(A95,'GE14'!A:D,3,FALSE)</f>
         <v>41206</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <f t="shared" si="3"/>
         <v>0.2393826141824007</v>
       </c>
@@ -10124,7 +10124,7 @@
         <f>VLOOKUP(A96,'GE14'!A:D,3,FALSE)</f>
         <v>85221</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="1">
         <f t="shared" si="3"/>
         <v>0.43675854542894355</v>
       </c>
@@ -10153,7 +10153,7 @@
         <f>VLOOKUP(A97,'GE14'!A:D,3,FALSE)</f>
         <v>40498</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1">
         <f t="shared" si="3"/>
         <v>0.26438342634204148</v>
       </c>
@@ -10182,7 +10182,7 @@
         <f>VLOOKUP(A98,'GE14'!A:D,3,FALSE)</f>
         <v>59721</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="1">
         <f t="shared" si="3"/>
         <v>0.44808358868739639</v>
       </c>
@@ -10211,7 +10211,7 @@
         <f>VLOOKUP(A99,'GE14'!A:D,3,FALSE)</f>
         <v>98002</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="1">
         <f t="shared" si="3"/>
         <v>0.47834738066570059</v>
       </c>
@@ -10240,7 +10240,7 @@
         <f>VLOOKUP(A100,'GE14'!A:D,3,FALSE)</f>
         <v>119042</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="1">
         <f t="shared" si="3"/>
         <v>0.38964399119638449</v>
       </c>
@@ -10269,7 +10269,7 @@
         <f>VLOOKUP(A101,'GE14'!A:D,3,FALSE)</f>
         <v>76550</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="1">
         <f t="shared" si="3"/>
         <v>0.36420640104506852</v>
       </c>
@@ -10298,7 +10298,7 @@
         <f>VLOOKUP(A102,'GE14'!A:D,3,FALSE)</f>
         <v>85774</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="1">
         <f t="shared" si="3"/>
         <v>0.34838062816238025</v>
       </c>
@@ -10327,7 +10327,7 @@
         <f>VLOOKUP(A103,'GE14'!A:D,3,FALSE)</f>
         <v>88247</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="1">
         <f t="shared" si="3"/>
         <v>0.55006969075435985</v>
       </c>
@@ -10356,7 +10356,7 @@
         <f>VLOOKUP(A104,'GE14'!A:D,3,FALSE)</f>
         <v>156327</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="1">
         <f t="shared" si="3"/>
         <v>0.56269230523198166</v>
       </c>
@@ -10385,7 +10385,7 @@
         <f>VLOOKUP(A105,'GE14'!A:D,3,FALSE)</f>
         <v>83478</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="1">
         <f t="shared" si="3"/>
         <v>0.44887275689403205</v>
       </c>
@@ -10414,7 +10414,7 @@
         <f>VLOOKUP(A106,'GE14'!A:D,3,FALSE)</f>
         <v>125705</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="1">
         <f t="shared" si="3"/>
         <v>0.41587844556700215</v>
       </c>
@@ -10443,7 +10443,7 @@
         <f>VLOOKUP(A107,'GE14'!A:D,3,FALSE)</f>
         <v>115279</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="1">
         <f t="shared" si="3"/>
         <v>0.26529550048144057</v>
       </c>
@@ -10472,7 +10472,7 @@
         <f>VLOOKUP(A108,'GE14'!A:D,3,FALSE)</f>
         <v>136280</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="1">
         <f t="shared" si="3"/>
         <v>0.28365864396830065</v>
       </c>
@@ -10501,7 +10501,7 @@
         <f>VLOOKUP(A109,'GE14'!A:D,3,FALSE)</f>
         <v>77951</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="1">
         <f t="shared" si="3"/>
         <v>0.66308321894523492</v>
       </c>
@@ -10530,7 +10530,7 @@
         <f>VLOOKUP(A110,'GE14'!A:D,3,FALSE)</f>
         <v>93243</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="1">
         <f t="shared" si="3"/>
         <v>0.45606640712975777</v>
       </c>
@@ -10559,7 +10559,7 @@
         <f>VLOOKUP(A111,'GE14'!A:D,3,FALSE)</f>
         <v>106093</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="1">
         <f t="shared" si="3"/>
         <v>0.48954219411271249</v>
       </c>
@@ -10588,7 +10588,7 @@
         <f>VLOOKUP(A112,'GE14'!A:D,3,FALSE)</f>
         <v>127074</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="1">
         <f t="shared" si="3"/>
         <v>0.28983899145379866</v>
       </c>
@@ -10617,7 +10617,7 @@
         <f>VLOOKUP(A113,'GE14'!A:D,3,FALSE)</f>
         <v>128126</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="1">
         <f t="shared" si="3"/>
         <v>0.54332453990603002</v>
       </c>
@@ -10646,7 +10646,7 @@
         <f>VLOOKUP(A114,'GE14'!A:D,3,FALSE)</f>
         <v>88097</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="1">
         <f t="shared" si="3"/>
         <v>0.40595025937319096</v>
       </c>
@@ -10675,7 +10675,7 @@
         <f>VLOOKUP(A115,'GE14'!A:D,3,FALSE)</f>
         <v>90657</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="1">
         <f t="shared" si="3"/>
         <v>0.52172474271153901</v>
       </c>
@@ -10704,7 +10704,7 @@
         <f>VLOOKUP(A116,'GE14'!A:D,3,FALSE)</f>
         <v>61404</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="1">
         <f t="shared" si="3"/>
         <v>0.17775714937137654</v>
       </c>
@@ -10733,7 +10733,7 @@
         <f>VLOOKUP(A117,'GE14'!A:D,3,FALSE)</f>
         <v>62805</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="1">
         <f t="shared" si="3"/>
         <v>0.3875646843404188</v>
       </c>
@@ -10762,7 +10762,7 @@
         <f>VLOOKUP(A118,'GE14'!A:D,3,FALSE)</f>
         <v>73608</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="1">
         <f t="shared" si="3"/>
         <v>0.25991740028257793</v>
       </c>
@@ -10791,7 +10791,7 @@
         <f>VLOOKUP(A119,'GE14'!A:D,3,FALSE)</f>
         <v>64727</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="1">
         <f t="shared" si="3"/>
         <v>0.3208707340059016</v>
       </c>
@@ -10820,7 +10820,7 @@
         <f>VLOOKUP(A120,'GE14'!A:D,3,FALSE)</f>
         <v>60852</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="1">
         <f t="shared" si="3"/>
         <v>0.2286202589890225</v>
       </c>
@@ -10849,7 +10849,7 @@
         <f>VLOOKUP(A121,'GE14'!A:D,3,FALSE)</f>
         <v>50386</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1">
         <f t="shared" si="3"/>
         <v>0.20783550986385113</v>
       </c>
@@ -10878,7 +10878,7 @@
         <f>VLOOKUP(A122,'GE14'!A:D,3,FALSE)</f>
         <v>52408</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="1">
         <f t="shared" si="3"/>
         <v>1.0074797740802888E-2</v>
       </c>
@@ -10907,7 +10907,7 @@
         <f>VLOOKUP(A123,'GE14'!A:D,3,FALSE)</f>
         <v>66305</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="1">
         <f t="shared" si="3"/>
         <v>0.15698665259030231</v>
       </c>
@@ -10936,7 +10936,7 @@
         <f>VLOOKUP(A124,'GE14'!A:D,3,FALSE)</f>
         <v>70129</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="1">
         <f t="shared" si="3"/>
         <v>0.24704473185130249</v>
       </c>
@@ -10965,7 +10965,7 @@
         <f>VLOOKUP(A125,'GE14'!A:D,3,FALSE)</f>
         <v>63677</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="1">
         <f t="shared" si="3"/>
         <v>0.12671765315577055</v>
       </c>
@@ -10994,7 +10994,7 @@
         <f>VLOOKUP(A126,'GE14'!A:D,3,FALSE)</f>
         <v>70206</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1">
         <f t="shared" si="3"/>
         <v>0.32497222459618835</v>
       </c>
@@ -11023,7 +11023,7 @@
         <f>VLOOKUP(A127,'GE14'!A:D,3,FALSE)</f>
         <v>24558</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <f t="shared" si="3"/>
         <v>0.49210033390341223</v>
       </c>
@@ -11052,7 +11052,7 @@
         <f>VLOOKUP(A128,'GE14'!A:D,3,FALSE)</f>
         <v>21358</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <f t="shared" si="3"/>
         <v>0.33200674220432624</v>
       </c>
@@ -11081,7 +11081,7 @@
         <f>VLOOKUP(A129,'GE14'!A:D,3,FALSE)</f>
         <v>38957</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <f t="shared" si="3"/>
         <v>0.16369330287239769</v>
       </c>
@@ -11110,7 +11110,7 @@
         <f>VLOOKUP(A130,'GE14'!A:D,3,FALSE)</f>
         <v>57274</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="1">
         <f t="shared" si="3"/>
         <v>0.25353563571603166</v>
       </c>
@@ -11139,7 +11139,7 @@
         <f>VLOOKUP(A131,'GE14'!A:D,3,FALSE)</f>
         <v>91818</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="1">
         <f t="shared" si="3"/>
         <v>0.3426996885142346</v>
       </c>
@@ -11168,7 +11168,7 @@
         <f>VLOOKUP(A132,'GE14'!A:D,3,FALSE)</f>
         <v>40237</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="1">
         <f t="shared" ref="G132:G195" si="5">E132/F132-1</f>
         <v>0.20938439744513748</v>
       </c>
@@ -11197,7 +11197,7 @@
         <f>VLOOKUP(A133,'GE14'!A:D,3,FALSE)</f>
         <v>85307</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="1">
         <f t="shared" si="5"/>
         <v>0.40306188237776497</v>
       </c>
@@ -11226,7 +11226,7 @@
         <f>VLOOKUP(A134,'GE14'!A:D,3,FALSE)</f>
         <v>73856</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="1">
         <f t="shared" si="5"/>
         <v>0.48174826689774686</v>
       </c>
@@ -11255,7 +11255,7 @@
         <f>VLOOKUP(A135,'GE14'!A:D,3,FALSE)</f>
         <v>61334</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="1">
         <f t="shared" si="5"/>
         <v>0.30734992010956397</v>
       </c>
@@ -11284,7 +11284,7 @@
         <f>VLOOKUP(A136,'GE14'!A:D,3,FALSE)</f>
         <v>48466</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="1">
         <f t="shared" si="5"/>
         <v>0.25929517599966978</v>
       </c>
@@ -11313,7 +11313,7 @@
         <f>VLOOKUP(A137,'GE14'!A:D,3,FALSE)</f>
         <v>42325</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="1">
         <f t="shared" si="5"/>
         <v>0.29353809805079734</v>
       </c>
@@ -11342,7 +11342,7 @@
         <f>VLOOKUP(A138,'GE14'!A:D,3,FALSE)</f>
         <v>57815</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="1">
         <f t="shared" si="5"/>
         <v>0.26264810170371011</v>
       </c>
@@ -11371,7 +11371,7 @@
         <f>VLOOKUP(A139,'GE14'!A:D,3,FALSE)</f>
         <v>69142</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="1">
         <f t="shared" si="5"/>
         <v>0.33098550808481098</v>
       </c>
@@ -11400,7 +11400,7 @@
         <f>VLOOKUP(A140,'GE14'!A:D,3,FALSE)</f>
         <v>76583</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="1">
         <f t="shared" si="5"/>
         <v>0.23377250825901319</v>
       </c>
@@ -11429,7 +11429,7 @@
         <f>VLOOKUP(A141,'GE14'!A:D,3,FALSE)</f>
         <v>105276</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="1">
         <f t="shared" si="5"/>
         <v>0.17007675063642225</v>
       </c>
@@ -11458,7 +11458,7 @@
         <f>VLOOKUP(A142,'GE14'!A:D,3,FALSE)</f>
         <v>61761</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="1">
         <f t="shared" si="5"/>
         <v>0.2564239568659834</v>
       </c>
@@ -11487,7 +11487,7 @@
         <f>VLOOKUP(A143,'GE14'!A:D,3,FALSE)</f>
         <v>45320</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="1">
         <f t="shared" si="5"/>
         <v>0.1176522506619595</v>
       </c>
@@ -11516,7 +11516,7 @@
         <f>VLOOKUP(A144,'GE14'!A:D,3,FALSE)</f>
         <v>37837</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="1">
         <f t="shared" si="5"/>
         <v>0.2748632291143589</v>
       </c>
@@ -11545,7 +11545,7 @@
         <f>VLOOKUP(A145,'GE14'!A:D,3,FALSE)</f>
         <v>32030</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="1">
         <f t="shared" si="5"/>
         <v>8.4764283484233482E-2</v>
       </c>
@@ -11574,7 +11574,7 @@
         <f>VLOOKUP(A146,'GE14'!A:D,3,FALSE)</f>
         <v>42672</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="1">
         <f t="shared" si="5"/>
         <v>0.27462973378327704</v>
       </c>
@@ -11603,7 +11603,7 @@
         <f>VLOOKUP(A147,'GE14'!A:D,3,FALSE)</f>
         <v>65414</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="1">
         <f t="shared" si="5"/>
         <v>0.22767297520408469</v>
       </c>
@@ -11632,7 +11632,7 @@
         <f>VLOOKUP(A148,'GE14'!A:D,3,FALSE)</f>
         <v>61800</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="1">
         <f t="shared" si="5"/>
         <v>0.18349514563106806</v>
       </c>
@@ -11661,7 +11661,7 @@
         <f>VLOOKUP(A149,'GE14'!A:D,3,FALSE)</f>
         <v>42083</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="1">
         <f t="shared" si="5"/>
         <v>0.26317040134971359</v>
       </c>
@@ -11690,7 +11690,7 @@
         <f>VLOOKUP(A150,'GE14'!A:D,3,FALSE)</f>
         <v>49769</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="1">
         <f t="shared" si="5"/>
         <v>0.2649239486427295</v>
       </c>
@@ -11719,7 +11719,7 @@
         <f>VLOOKUP(A151,'GE14'!A:D,3,FALSE)</f>
         <v>38824</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="1">
         <f t="shared" si="5"/>
         <v>0.20265814959818673</v>
       </c>
@@ -11748,7 +11748,7 @@
         <f>VLOOKUP(A152,'GE14'!A:D,3,FALSE)</f>
         <v>44282</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="1">
         <f t="shared" si="5"/>
         <v>0.38349668036674034</v>
       </c>
@@ -11777,7 +11777,7 @@
         <f>VLOOKUP(A153,'GE14'!A:D,3,FALSE)</f>
         <v>82137</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="1">
         <f t="shared" si="5"/>
         <v>0.21131767656476375</v>
       </c>
@@ -11806,7 +11806,7 @@
         <f>VLOOKUP(A154,'GE14'!A:D,3,FALSE)</f>
         <v>35822</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="1">
         <f t="shared" si="5"/>
         <v>0.23195243146669653</v>
       </c>
@@ -11835,7 +11835,7 @@
         <f>VLOOKUP(A155,'GE14'!A:D,3,FALSE)</f>
         <v>80531</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="1">
         <f t="shared" si="5"/>
         <v>0.18738125690727792</v>
       </c>
@@ -11864,7 +11864,7 @@
         <f>VLOOKUP(A156,'GE14'!A:D,3,FALSE)</f>
         <v>36044</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="1">
         <f t="shared" si="5"/>
         <v>0.13555654200421707</v>
       </c>
@@ -11893,7 +11893,7 @@
         <f>VLOOKUP(A157,'GE14'!A:D,3,FALSE)</f>
         <v>37368</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="1">
         <f t="shared" si="5"/>
         <v>0.25524512952258616</v>
       </c>
@@ -11922,7 +11922,7 @@
         <f>VLOOKUP(A158,'GE14'!A:D,3,FALSE)</f>
         <v>37034</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="1">
         <f t="shared" si="5"/>
         <v>0.38656369822325432</v>
       </c>
@@ -11951,7 +11951,7 @@
         <f>VLOOKUP(A159,'GE14'!A:D,3,FALSE)</f>
         <v>38193</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="1">
         <f t="shared" si="5"/>
         <v>0.23931086848375349</v>
       </c>
@@ -11980,7 +11980,7 @@
         <f>VLOOKUP(A160,'GE14'!A:D,3,FALSE)</f>
         <v>32241</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="1">
         <f t="shared" si="5"/>
         <v>0.29772649731708078</v>
       </c>
@@ -12009,7 +12009,7 @@
         <f>VLOOKUP(A161,'GE14'!A:D,3,FALSE)</f>
         <v>103943</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="1">
         <f t="shared" si="5"/>
         <v>0.61593373291130726</v>
       </c>
@@ -12038,7 +12038,7 @@
         <f>VLOOKUP(A162,'GE14'!A:D,3,FALSE)</f>
         <v>105009</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="1">
         <f t="shared" si="5"/>
         <v>0.42159243493414844</v>
       </c>
@@ -12067,7 +12067,7 @@
         <f>VLOOKUP(A163,'GE14'!A:D,3,FALSE)</f>
         <v>80322</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="1">
         <f t="shared" si="5"/>
         <v>0.17518239087672116</v>
       </c>
@@ -12096,7 +12096,7 @@
         <f>VLOOKUP(A164,'GE14'!A:D,3,FALSE)</f>
         <v>86893</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="1">
         <f t="shared" si="5"/>
         <v>0.3499706535624274</v>
       </c>
@@ -12125,7 +12125,7 @@
         <f>VLOOKUP(A165,'GE14'!A:D,3,FALSE)</f>
         <v>116588</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="1">
         <f t="shared" si="5"/>
         <v>0.4039180704703742</v>
       </c>
@@ -12154,7 +12154,7 @@
         <f>VLOOKUP(A166,'GE14'!A:D,3,FALSE)</f>
         <v>84543</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="1">
         <f t="shared" si="5"/>
         <v>0.36324710502347912</v>
       </c>
@@ -12183,7 +12183,7 @@
         <f>VLOOKUP(A167,'GE14'!A:D,3,FALSE)</f>
         <v>45726</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="1">
         <f t="shared" si="5"/>
         <v>0.24329703013602755</v>
       </c>
@@ -12212,7 +12212,7 @@
         <f>VLOOKUP(A168,'GE14'!A:D,3,FALSE)</f>
         <v>44948</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="1">
         <f t="shared" si="5"/>
         <v>0.21447005428495158</v>
       </c>
@@ -12241,7 +12241,7 @@
         <f>VLOOKUP(A169,'GE14'!A:D,3,FALSE)</f>
         <v>37079</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="1">
         <f t="shared" si="5"/>
         <v>0.21653766282801579</v>
       </c>
@@ -12270,7 +12270,7 @@
         <f>VLOOKUP(A170,'GE14'!A:D,3,FALSE)</f>
         <v>33906</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="1">
         <f t="shared" si="5"/>
         <v>0.47307261251695865</v>
       </c>
@@ -12299,7 +12299,7 @@
         <f>VLOOKUP(A171,'GE14'!A:D,3,FALSE)</f>
         <v>46098</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="1">
         <f t="shared" si="5"/>
         <v>0.17222005293071274</v>
       </c>
@@ -12328,7 +12328,7 @@
         <f>VLOOKUP(A172,'GE14'!A:D,3,FALSE)</f>
         <v>43643</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="1">
         <f t="shared" si="5"/>
         <v>0.33416584561097995</v>
       </c>
@@ -12357,7 +12357,7 @@
         <f>VLOOKUP(A173,'GE14'!A:D,3,FALSE)</f>
         <v>47785</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="1">
         <f t="shared" si="5"/>
         <v>0.47125667050329612</v>
       </c>
@@ -12386,7 +12386,7 @@
         <f>VLOOKUP(A174,'GE14'!A:D,3,FALSE)</f>
         <v>42310</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="1">
         <f t="shared" si="5"/>
         <v>4.2779484755377073E-2</v>
       </c>
@@ -12415,7 +12415,7 @@
         <f>VLOOKUP(A175,'GE14'!A:D,3,FALSE)</f>
         <v>30790</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="1">
         <f t="shared" si="5"/>
         <v>0.33968821045794084</v>
       </c>
@@ -12444,7 +12444,7 @@
         <f>VLOOKUP(A176,'GE14'!A:D,3,FALSE)</f>
         <v>43108</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="1">
         <f t="shared" si="5"/>
         <v>0.17681172868145123</v>
       </c>
@@ -12473,7 +12473,7 @@
         <f>VLOOKUP(A177,'GE14'!A:D,3,FALSE)</f>
         <v>35836</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="1">
         <f t="shared" si="5"/>
         <v>0.21411429847081154</v>
       </c>
@@ -12502,7 +12502,7 @@
         <f>VLOOKUP(A178,'GE14'!A:D,3,FALSE)</f>
         <v>25028</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="1">
         <f t="shared" si="5"/>
         <v>0.24132971072398912</v>
       </c>
@@ -12531,7 +12531,7 @@
         <f>VLOOKUP(A179,'GE14'!A:D,3,FALSE)</f>
         <v>27212</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="1">
         <f t="shared" si="5"/>
         <v>7.6657357048361074E-2</v>
       </c>
@@ -12560,7 +12560,7 @@
         <f>VLOOKUP(A180,'GE14'!A:D,3,FALSE)</f>
         <v>24771</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="1">
         <f t="shared" si="5"/>
         <v>0.17318638730773883</v>
       </c>
@@ -12589,7 +12589,7 @@
         <f>VLOOKUP(A181,'GE14'!A:D,3,FALSE)</f>
         <v>32942</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="1">
         <f t="shared" si="5"/>
         <v>0.28401432821322325</v>
       </c>
@@ -12618,7 +12618,7 @@
         <f>VLOOKUP(A182,'GE14'!A:D,3,FALSE)</f>
         <v>40149</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="1">
         <f t="shared" si="5"/>
         <v>0.36670900894169223</v>
       </c>
@@ -12647,7 +12647,7 @@
         <f>VLOOKUP(A183,'GE14'!A:D,3,FALSE)</f>
         <v>22238</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="1">
         <f t="shared" si="5"/>
         <v>0.28829031387714732</v>
       </c>
@@ -12676,7 +12676,7 @@
         <f>VLOOKUP(A184,'GE14'!A:D,3,FALSE)</f>
         <v>24368</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="1">
         <f t="shared" si="5"/>
         <v>0.52289888378200922</v>
       </c>
@@ -12705,7 +12705,7 @@
         <f>VLOOKUP(A185,'GE14'!A:D,3,FALSE)</f>
         <v>20698</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="1">
         <f t="shared" si="5"/>
         <v>0.41723838051985696</v>
       </c>
@@ -12734,7 +12734,7 @@
         <f>VLOOKUP(A186,'GE14'!A:D,3,FALSE)</f>
         <v>36143</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="1">
         <f t="shared" si="5"/>
         <v>0.2320781340785214</v>
       </c>
@@ -12763,7 +12763,7 @@
         <f>VLOOKUP(A187,'GE14'!A:D,3,FALSE)</f>
         <v>23261</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="1">
         <f t="shared" si="5"/>
         <v>0.16233180000859804</v>
       </c>
@@ -12792,7 +12792,7 @@
         <f>VLOOKUP(A188,'GE14'!A:D,3,FALSE)</f>
         <v>28090</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="1">
         <f t="shared" si="5"/>
         <v>0.1007119971520114</v>
       </c>
@@ -12821,7 +12821,7 @@
         <f>VLOOKUP(A189,'GE14'!A:D,3,FALSE)</f>
         <v>21518</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="1">
         <f t="shared" si="5"/>
         <v>0.36416023794032903</v>
       </c>
@@ -12850,7 +12850,7 @@
         <f>VLOOKUP(A190,'GE14'!A:D,3,FALSE)</f>
         <v>43040</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="1">
         <f t="shared" si="5"/>
         <v>0.35095260223048319</v>
       </c>
@@ -12879,7 +12879,7 @@
         <f>VLOOKUP(A191,'GE14'!A:D,3,FALSE)</f>
         <v>33426</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="1">
         <f t="shared" si="5"/>
         <v>0.16403398552025372</v>
       </c>
@@ -12908,7 +12908,7 @@
         <f>VLOOKUP(A192,'GE14'!A:D,3,FALSE)</f>
         <v>42753</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="1">
         <f t="shared" si="5"/>
         <v>0.18557762028395675</v>
       </c>
@@ -12937,7 +12937,7 @@
         <f>VLOOKUP(A193,'GE14'!A:D,3,FALSE)</f>
         <v>36909</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="1">
         <f t="shared" si="5"/>
         <v>0.35549594949741259</v>
       </c>
@@ -12966,7 +12966,7 @@
         <f>VLOOKUP(A194,'GE14'!A:D,3,FALSE)</f>
         <v>22518</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="1">
         <f t="shared" si="5"/>
         <v>0.39350741628919095</v>
       </c>
@@ -12995,7 +12995,7 @@
         <f>VLOOKUP(A195,'GE14'!A:D,3,FALSE)</f>
         <v>33273</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="1">
         <f t="shared" si="5"/>
         <v>0.55708832987707746</v>
       </c>
@@ -13024,7 +13024,7 @@
         <f>VLOOKUP(A196,'GE14'!A:D,3,FALSE)</f>
         <v>42945</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="1">
         <f t="shared" ref="G196:G225" si="7">E196/F196-1</f>
         <v>0.61050180463383397</v>
       </c>
@@ -13053,7 +13053,7 @@
         <f>VLOOKUP(A197,'GE14'!A:D,3,FALSE)</f>
         <v>61123</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="1">
         <f t="shared" si="7"/>
         <v>4.0115832010863439E-2</v>
       </c>
@@ -13082,7 +13082,7 @@
         <f>VLOOKUP(A198,'GE14'!A:D,3,FALSE)</f>
         <v>51899</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="1">
         <f t="shared" si="7"/>
         <v>0.42108711150503852</v>
       </c>
@@ -13111,7 +13111,7 @@
         <f>VLOOKUP(A199,'GE14'!A:D,3,FALSE)</f>
         <v>35867</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="1">
         <f t="shared" si="7"/>
         <v>0.5365377645189171</v>
       </c>
@@ -13140,7 +13140,7 @@
         <f>VLOOKUP(A200,'GE14'!A:D,3,FALSE)</f>
         <v>34520</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="1">
         <f t="shared" si="7"/>
         <v>0.48186558516801847</v>
       </c>
@@ -13169,7 +13169,7 @@
         <f>VLOOKUP(A201,'GE14'!A:D,3,FALSE)</f>
         <v>27419</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="1">
         <f t="shared" si="7"/>
         <v>0.45789416098325986</v>
       </c>
@@ -13198,7 +13198,7 @@
         <f>VLOOKUP(A202,'GE14'!A:D,3,FALSE)</f>
         <v>17066</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="1">
         <f t="shared" si="7"/>
         <v>0.31507090120707848</v>
       </c>
@@ -13227,7 +13227,7 @@
         <f>VLOOKUP(A203,'GE14'!A:D,3,FALSE)</f>
         <v>20151</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="1">
         <f t="shared" si="7"/>
         <v>0.36762443551188517</v>
       </c>
@@ -13256,7 +13256,7 @@
         <f>VLOOKUP(A204,'GE14'!A:D,3,FALSE)</f>
         <v>23000</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="1">
         <f t="shared" si="7"/>
         <v>0.387695652173913</v>
       </c>
@@ -13285,7 +13285,7 @@
         <f>VLOOKUP(A205,'GE14'!A:D,3,FALSE)</f>
         <v>14551</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="1">
         <f t="shared" si="7"/>
         <v>0.32595697890179376</v>
       </c>
@@ -13314,7 +13314,7 @@
         <f>VLOOKUP(A206,'GE14'!A:D,3,FALSE)</f>
         <v>20720</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="1">
         <f t="shared" si="7"/>
         <v>0.28923745173745163</v>
       </c>
@@ -13343,7 +13343,7 @@
         <f>VLOOKUP(A207,'GE14'!A:D,3,FALSE)</f>
         <v>22707</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="1">
         <f t="shared" si="7"/>
         <v>0.35821552825120007</v>
       </c>
@@ -13372,7 +13372,7 @@
         <f>VLOOKUP(A208,'GE14'!A:D,3,FALSE)</f>
         <v>14130</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="1">
         <f t="shared" si="7"/>
         <v>0.34748761500353864</v>
       </c>
@@ -13401,7 +13401,7 @@
         <f>VLOOKUP(A209,'GE14'!A:D,3,FALSE)</f>
         <v>12581</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="1">
         <f t="shared" si="7"/>
         <v>0.35013115014704721</v>
       </c>
@@ -13430,7 +13430,7 @@
         <f>VLOOKUP(A210,'GE14'!A:D,3,FALSE)</f>
         <v>30476</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="1">
         <f t="shared" si="7"/>
         <v>0.19644966531040819</v>
       </c>
@@ -13459,7 +13459,7 @@
         <f>VLOOKUP(A211,'GE14'!A:D,3,FALSE)</f>
         <v>18279</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="1">
         <f t="shared" si="7"/>
         <v>0.23294490945894197</v>
       </c>
@@ -13488,7 +13488,7 @@
         <f>VLOOKUP(A212,'GE14'!A:D,3,FALSE)</f>
         <v>14792</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="1">
         <f t="shared" si="7"/>
         <v>0.21978096268253111</v>
       </c>
@@ -13517,7 +13517,7 @@
         <f>VLOOKUP(A213,'GE14'!A:D,3,FALSE)</f>
         <v>45892</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="1">
         <f t="shared" si="7"/>
         <v>0.15370870739998255</v>
       </c>
@@ -13546,7 +13546,7 @@
         <f>VLOOKUP(A214,'GE14'!A:D,3,FALSE)</f>
         <v>56753</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="1">
         <f t="shared" si="7"/>
         <v>0.1619121456134478</v>
       </c>
@@ -13575,7 +13575,7 @@
         <f>VLOOKUP(A215,'GE14'!A:D,3,FALSE)</f>
         <v>20706</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="1">
         <f t="shared" si="7"/>
         <v>0.34164010431758918</v>
       </c>
@@ -13604,7 +13604,7 @@
         <f>VLOOKUP(A216,'GE14'!A:D,3,FALSE)</f>
         <v>21970</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="1">
         <f t="shared" si="7"/>
         <v>0.31069640418752842</v>
       </c>
@@ -13633,7 +13633,7 @@
         <f>VLOOKUP(A217,'GE14'!A:D,3,FALSE)</f>
         <v>18125</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="1">
         <f t="shared" si="7"/>
         <v>0.21373793103448269</v>
       </c>
@@ -13662,7 +13662,7 @@
         <f>VLOOKUP(A218,'GE14'!A:D,3,FALSE)</f>
         <v>17353</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="1">
         <f t="shared" si="7"/>
         <v>0.34887339364951298</v>
       </c>
@@ -13691,7 +13691,7 @@
         <f>VLOOKUP(A219,'GE14'!A:D,3,FALSE)</f>
         <v>47458</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="1">
         <f t="shared" si="7"/>
         <v>0.48324834590585364</v>
       </c>
@@ -13720,7 +13720,7 @@
         <f>VLOOKUP(A220,'GE14'!A:D,3,FALSE)</f>
         <v>22369</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="1">
         <f t="shared" si="7"/>
         <v>0.51620546291743041</v>
       </c>
@@ -13749,7 +13749,7 @@
         <f>VLOOKUP(A221,'GE14'!A:D,3,FALSE)</f>
         <v>57815</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="1">
         <f t="shared" si="7"/>
         <v>0.35169073769782933</v>
       </c>
@@ -13778,7 +13778,7 @@
         <f>VLOOKUP(A222,'GE14'!A:D,3,FALSE)</f>
         <v>22352</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -13807,7 +13807,7 @@
         <f>VLOOKUP(A223,'GE14'!A:D,3,FALSE)</f>
         <v>17468</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="1">
         <f t="shared" si="7"/>
         <v>0.13327226929242042</v>
       </c>
@@ -13836,7 +13836,7 @@
         <f>VLOOKUP(A224,'GE14'!A:D,3,FALSE)</f>
         <v>14250</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="1">
         <f t="shared" si="7"/>
         <v>0.27775438596491231</v>
       </c>
@@ -13865,7 +13865,7 @@
         <f>SUM(F3:F224)</f>
         <v>12082431</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="1">
         <f t="shared" si="7"/>
         <v>0.28983869223006531</v>
       </c>
